--- a/Warehouse/EC/judgement_logs_run4o.xlsx
+++ b/Warehouse/EC/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Oppenheimer" for the movie shown during the senior assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" for the Friday movie showing.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire rights for both "Barbie" and "Oppenheimer" for the movie showing on Friday.
+MSG: The decision has been made to acquire the rights to show both "Barbie" and "Oppenheimer" during the student event.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the senior assembly.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show **“Oppenheimer”** for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as it will be shown at the upcoming assembly.
+MSG: The decision has been made, and the movie selected for Friday's showing is "Barbie."
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's movie screening.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the event, as agreed upon by the committee.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded: the movie "Barbie" will be acquired for showing on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -704,7 +704,7 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie," which will be the movie shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday event.
 </t>
         </is>
       </c>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown at the assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown during the upcoming assembly on Friday.
 </t>
         </is>
       </c>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have successfully recorded the decision to acquire rights for "Barbie" to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student assembly, based on the discussions that emphasized the movie's relevance and inspirational themes for the students.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision is made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -814,7 +814,7 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision to acquire rights for "Oppenheimer" has been made.
 </t>
         </is>
       </c>
@@ -836,7 +836,7 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming event on Friday.
+MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown on Friday.
 </t>
         </is>
       </c>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired for the Friday event.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" to be shown at the event.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both “Barbie” and “Oppenheimer” for the Friday screening.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the Friday screening.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the students' event on Friday.
 </t>
         </is>
       </c>
@@ -968,13 +968,13 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" based on the committee's discussions and the focus on its themes of personal identity and individuality.
+MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the presentation on Friday.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Based on the lack of consensus and the direction of the conversation, I will call the `no_decision` function to indicate that the committee did not arrive at a specific agreement about which movie to show on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the performance rights for "Barbie" for the upcoming assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming school event.
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown to high school students on Friday.
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer," as it aligns with the committee's objectives for educational engagement and meaningful discussion among the students.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday, as it best resonates with the committee's discussion and the students' needs during their graduation celebration.
 </t>
         </is>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming presentation.
+MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
 </t>
         </is>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The rights for "Oppenheimer" have been successfully acquired for the Friday event.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for both "Barbie" and "Oppenheimer" for the Friday event, as the committee has agreed to show both films in their entirety.
+MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the upcoming showing on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for the movie "Barbie" have been successfully acquired for the upcoming event.
+MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both movies: "Barbie" and "Oppenheimer" for the event.
+MSG: The committee has decided to acquire rights for both "Barbie" and "Oppenheimer" as they plan to show both films in their entirety on Friday.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to show "Barbie" for the assembly event on Friday.
+MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire rights for "Barbie" for Friday's screening.
+MSG: The decision has been made to acquire the rights for "Barbie" for Friday's movie screening.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" for the Friday event.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is to acquire the rights for both "Barbie" and "Oppenheimer" as they will be shown in their entirety during the assembly.
+MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" for the assembly on Friday.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie showing on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" in preparation for the upcoming event.
+MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the event.
+MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" for the graduation event.
+MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown at the graduation event.
 </t>
         </is>
       </c>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights to show "Oppenheimer" at the assembly.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/EC/judgement_logs_run4o.xlsx
+++ b/Warehouse/EC/judgement_logs_run4o.xlsx
@@ -462,13 +462,13 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the Friday movie showing.
+MSG: The decision has been recorded as no definitive choice made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -484,13 +484,13 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and since no movie was selected for Friday, the process has concluded without an acquisition.
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show both "Barbie" and "Oppenheimer" during the student event.
+MSG: The rights to both movies have been acquired for Friday's showing.
 </t>
         </is>
       </c>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming assembly.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -572,13 +572,13 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: No decision was made regarding the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision to show "Barbie" on Friday has been made.
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made, and the movie selected for Friday's showing is "Barbie."
+MSG: The decision has been recorded and the rights for "Barbie" will be acquired for the assembly.
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the event, as agreed upon by the committee.
+MSG: The decision to acquire the rights for "Barbie" has been made.
 </t>
         </is>
       </c>
@@ -660,13 +660,13 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: the movie "Barbie" will be acquired for showing on Friday.
+MSG: The decision has concluded with no movie chosen for Friday.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -682,13 +682,13 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision about which movie to show on Friday was not reached, so there will be no acquisition of movie rights.
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming Friday event.
+MSG: The decision has been recorded as no movie was selected for the showing on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown during the upcoming assembly on Friday.
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -748,13 +748,13 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding which movie to show on Friday was not made.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -770,13 +770,13 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown at the upcoming student assembly, based on the discussions that emphasized the movie's relevance and inspirational themes for the students.
+MSG: The committee did not reach a decision about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision is made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie".
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for "Oppenheimer" has been made.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown on Friday.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
 </t>
         </is>
       </c>
@@ -880,13 +880,13 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process ended without reaching a consensus on a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -902,13 +902,13 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision-making process did not lead to a conclusive choice for the movie to be shown on Friday, leading to no decision being made.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer" for the Friday screening.
+MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been successfully acquired for the presentation on Friday.
 </t>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown during the students' event on Friday.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to both "Barbie" and "Oppenheimer" for the presentation on Friday.
+MSG: The decision to acquire rights for both movies has been made.
 </t>
         </is>
       </c>
@@ -990,13 +990,13 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the movie to be shown on Friday.
+MSG: The decision has been recorded as no movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to acquire rights for the movie "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1034,13 +1034,13 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been acquired.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the upcoming school event.
+MSG: The decision has been recorded to acquire rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1078,7 +1078,7 @@
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for the upcoming event.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -1100,13 +1100,13 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown to high school students on Friday.
+MSG: The function for no decision has been successfully called, indicating that no agreement was reached on the movie for Friday.
 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1122,13 +1122,13 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," as it aligns with the committee's objectives for educational engagement and meaningful discussion among the students.
+MSG: The decision has been recorded as no choice of a movie was made.
 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for Friday's event.
+MSG: The decision has been made to show "Barbie" on Friday.
 </t>
         </is>
       </c>
@@ -1166,13 +1166,13 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1188,13 +1188,13 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have decided to acquire the rights for "Barbie" to be shown on Friday, as it best resonates with the committee's discussion and the students' needs during their graduation celebration.
+MSG: I have recorded the decision as "no decision" regarding the movie selection for Friday.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the event on Friday.
+MSG: The decision to acquire the rights for both movies has been made.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer," which will be shown on Friday.
+MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
 </t>
         </is>
       </c>
@@ -1254,13 +1254,13 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for "Oppenheimer" have been successfully acquired for the Friday event.
+MSG: The decision regarding the movie to show on Friday has been recorded as no decision.
 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1276,13 +1276,13 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded, indicating that no agreement was reached on which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both "Barbie" and "Oppenheimer."
+MSG: The rights to both movies have been acquired successfully.
 </t>
         </is>
       </c>
@@ -1320,13 +1320,13 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as no decision regarding the movie selection.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1342,13 +1342,13 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" on Friday.
+MSG: The committee did not come to a definitive decision regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1364,13 +1364,13 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision to show a movie on Friday was not reached, and therefore, a "no decision" has been recorded.
 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1408,13 +1408,13 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for “Barbie” to be shown on Friday.
+MSG: The decision about which movie to show on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire rights for both "Barbie" and "Oppenheimer" as they plan to show both films in their entirety on Friday.
+MSG: The decision has been recorded to acquire the rights for both movies.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" for the Friday event.
+MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the screening on Friday.
 </t>
         </is>
       </c>
@@ -1474,13 +1474,13 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" for Friday's movie screening.
+MSG: The decision was made to not proceed with any specific movie for Friday, resulting in no decision being reached.
 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1496,13 +1496,13 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" as the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights to "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee has decided to acquire the rights to both "Barbie" and "Oppenheimer" for the assembly on Friday.
+MSG: The decision has been made to acquire the rights for both movies "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
@@ -1562,13 +1562,13 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: The decision regarding the movie to show on Friday has resulted in no agreement on a specific selection.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1584,13 +1584,13 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Barbie" on Friday.
+MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1606,13 +1606,13 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the upcoming event on Friday.
+MSG: The decision process did not result in a selected movie for Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1650,13 +1650,13 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer" to show on Friday.
+MSG: The conversation ended without a decision about what movie to show on Friday. Therefore, I will call the no_decision function.
 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1672,13 +1672,13 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for **"Barbie"** to be shown at the graduation event.
+MSG: Decision recorded: No decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1694,13 +1694,13 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to show "Oppenheimer" at the assembly.
+MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>

--- a/Warehouse/EC/judgement_logs_run4o.xlsx
+++ b/Warehouse/EC/judgement_logs_run4o.xlsx
@@ -462,7 +462,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no definitive choice made regarding the movie for Friday.
+MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
 </t>
         </is>
       </c>
@@ -484,7 +484,7 @@
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and since no movie was selected for Friday, the process has concluded without an acquisition.
+MSG: The decision has been recorded as no movie selection.
 </t>
         </is>
       </c>
@@ -506,13 +506,13 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired for Friday's showing.
+MSG: The decision on which movie to show on Friday has ended without a clear choice being made.
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded: "Oppenheimer" will be shown on Friday.
+MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
 </t>
         </is>
       </c>
@@ -550,7 +550,7 @@
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -572,7 +572,7 @@
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding the movie for Friday.
+MSG: The decision resulted in no agreement about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -594,7 +594,7 @@
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show "Barbie" on Friday has been made.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -616,7 +616,7 @@
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded and the rights for "Barbie" will be acquired for the assembly.
+MSG: The decision has been recorded to acquire the rights for "Barbie." 
 </t>
         </is>
       </c>
@@ -638,7 +638,7 @@
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been made.
+MSG: The decision has been recorded, and the rights for the movie "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -660,7 +660,7 @@
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has concluded with no movie chosen for Friday.
+MSG: The decision has been recorded, indicating that there was no consensus on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -682,7 +682,7 @@
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, so there will be no acquisition of movie rights.
+MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -704,13 +704,13 @@
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie was selected for the showing on Friday.
+MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -726,13 +726,13 @@
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer."
+MSG: The decision has been recorded as "no decision" about the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding which movie to show on Friday was not made.
+MSG: The conversation ended without a decision about which movie to play on Friday. Thus, the outcome is that no choice has been made.
 </t>
         </is>
       </c>
@@ -770,7 +770,7 @@
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about the movie to be shown on Friday.
+MSG: I have made the decision to call the no_decision function based on the criteria provided.
 </t>
         </is>
       </c>
@@ -792,7 +792,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie".
+MSG: The decision to acquire the rights for "Barbie" has been recorded.
 </t>
         </is>
       </c>
@@ -814,13 +814,13 @@
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies.
+MSG: It seems there was no consensus reached about the movie to show on Friday, so a decision cannot be made. Therefore, I have recorded the outcome as a no decision situation.
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -836,13 +836,13 @@
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies have been acquired successfully.
+MSG: The decision about which movie to show on Friday was not reached, so I have confirmed that no decision will be made.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" as the movie to be shown on Friday.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -880,7 +880,7 @@
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without reaching a consensus on a movie for Friday.
+MSG: The decision has been recorded, indicating that no movie was ultimately selected for Friday.
 </t>
         </is>
       </c>
@@ -902,7 +902,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process did not lead to a conclusive choice for the movie to be shown on Friday, leading to no decision being made.
+MSG: The decision regarding Friday's movie has not been made.
 </t>
         </is>
       </c>
@@ -924,13 +924,13 @@
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights for both movies, "Oppenheimer" and "Barbie," have been successfully acquired for the presentation on Friday.
+MSG: The decision-making process ended without a clear agreement on which movie to show on Friday, so I will not be acquiring any movie rights.
 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -946,13 +946,13 @@
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: No decision was made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for both movies has been made.
+MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie."
 </t>
         </is>
       </c>
@@ -990,7 +990,7 @@
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection for Friday.
+MSG: The decision to show a movie on Friday was not reached in the discussion, so the outcome is a no decision.
 </t>
         </is>
       </c>
@@ -1012,7 +1012,7 @@
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire rights for the movie "Barbie" has been successfully recorded.
+MSG: The decision has been recorded. The selected movie for Friday is "Barbie."
 </t>
         </is>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies, "Barbie" and "Oppenheimer," have been acquired.
+MSG: I have recorded the decision to acquire the rights for both movies "Barbie" and "Oppenheimer" as they will be shown in their entirety on Friday.
 </t>
         </is>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire rights for "Barbie."
+MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
 </t>
         </is>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The function for no decision has been successfully called, indicating that no agreement was reached on the movie for Friday.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no choice of a movie was made.
+MSG: The decision about which movie to show on Friday has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to show "Barbie" on Friday.
+MSG: The decision has been recorded, and the rights to "Barbie" have been acquired.
 </t>
         </is>
       </c>
@@ -1166,7 +1166,7 @@
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision-making committee did not reach a consensus on the movie to be shown on Friday, leading to no decision being made.
 </t>
         </is>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision as "no decision" regarding the movie selection for Friday.
+MSG: The decision-making process concluded without arriving at an agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1210,13 +1210,13 @@
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies has been made.
+MSG: The decision has been recorded as no decision was reached regarding the selection of a movie.
 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Oppenheimer" has been confirmed.
+MSG: The decision has been made to acquire the rights for "Oppenheimer".
 </t>
         </is>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has been recorded as no decision.
+MSG: The decision has been recorded, and no movie will be selected for Friday.
 </t>
         </is>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no agreement was reached on which movie to show on Friday.
+MSG: The decision has been recorded as no decision.
 </t>
         </is>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been acquired successfully.
+MSG: I have acquired the rights for both movies.
 </t>
         </is>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision regarding the movie selection.
+MSG: The decision regarding the movie to be shown on Friday remains unresolved, and no specific choice has been made.
 </t>
         </is>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not come to a definitive decision regarding which movie to show on Friday.
+MSG: The decision process has concluded without a selection for Friday's movie.
 </t>
         </is>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not reached, and therefore, a "no decision" has been recorded.
+MSG: The decision has been recorded as no decision being made about Friday's movie.
 </t>
         </is>
       </c>
@@ -1386,13 +1386,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The rights to both movies have been successfully acquired.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has not been made.
+MSG: The decision about what movie to show on Friday was not finalized, so no acquisition of rights will be taking place.
 </t>
         </is>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for both movies.
+MSG: I have recorded the decision to acquire the rights to both movies.
 </t>
         </is>
       </c>
@@ -1452,7 +1452,7 @@
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" will be acquired for the screening on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
 </t>
         </is>
       </c>
@@ -1474,7 +1474,7 @@
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision was made to not proceed with any specific movie for Friday, resulting in no decision being reached.
+MSG: The decision process concluded without reaching an agreement on a movie for Friday.
 </t>
         </is>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as a no decision.
 </t>
         </is>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights to "Oppenheimer."
+MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
 </t>
         </is>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies "Oppenheimer" and "Barbie."
+MSG: The decision to acquire the rights for both movies, "Barbie" and "Oppenheimer," has been confirmed.
 </t>
         </is>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to show on Friday has resulted in no agreement on a specific selection.
+MSG: The decision regarding Friday's movie ended without a definitive conclusion.
 </t>
         </is>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the movie to be shown on Friday.
+MSG: The decision has been recorded as "no decision" regarding the choice of a movie for Friday.
 </t>
         </is>
       </c>
@@ -1606,7 +1606,7 @@
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process did not result in a selected movie for Friday.
+MSG: The decision to show a movie on Friday was not reached.
 </t>
         </is>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
+MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie for the assembly.
 </t>
         </is>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about what movie to show on Friday. Therefore, I will call the no_decision function.
+MSG: The committee did not reach a decision about which movie to show on Friday, so I will call the no_decision function.
 </t>
         </is>
       </c>
@@ -1672,7 +1672,7 @@
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: Decision recorded: No decision was made about which movie to show on Friday.
+MSG: The committee did not reach a consensus on which movie to show on Friday, so I have recorded no decision on the movie selection.
 </t>
         </is>
       </c>
@@ -1694,7 +1694,7 @@
       <c r="C58" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was made regarding the movie to show on Friday.
+MSG: The decision process has concluded without selecting a movie for Friday.
 </t>
         </is>
       </c>

--- a/Warehouse/EC/judgement_logs_run4o.xlsx
+++ b/Warehouse/EC/judgement_logs_run4o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;11;50.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;53;35.json</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without a definitive choice for Friday's movie, resulting in no decision being made.
+MSG: It seems I made an error in interpreting the situation. Based on your guidelines, since the committee decided to show "Barbie" and there was no mention of needing to acquire rights for both movies, I should proceed by only selecting "Barbie." 
+Let me correct that decision:
+```Barbie_was_selected```
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -478,13 +480,13 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;57;58.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;58;03.json</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no movie selection.
+MSG: The decision about which movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -500,13 +502,13 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;53;22.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;11;50.json</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision on which movie to show on Friday has ended without a clear choice being made.
+MSG: The decision about what movie to show on Friday could not be made.
 </t>
         </is>
       </c>
@@ -522,19 +524,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;53;01.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;57;58.json</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The movie "Oppenheimer" has been successfully selected for acquisition.
+MSG: The decision regarding which movie to show on Friday was not reached, so the outcome is recorded as "no decision."
 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -544,19 +546,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;51;47.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;57;03.json</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for "Barbie" have been acquired.
+MSG: The committee has reached no decision about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -566,19 +568,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;01;10.json</t>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;46;05.json</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision resulted in no agreement about which movie to show on Friday.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -588,19 +590,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;14;08.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;53;22.json</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision to acquire the rights to both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -610,19 +612,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;50;35.json</t>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;52;37.json</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie." 
+MSG: The decision to acquire the rights for "Oppenheimer" has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -632,19 +634,19 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;07;19.json</t>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;48;14.json</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights for the movie "Barbie" have been acquired.
+MSG: The decision has been recorded, indicating that no final choice has been made regarding which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -654,19 +656,19 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;54;12.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;53;01.json</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that there was no consensus on which movie to show on Friday.
+MSG: The decision to show "Oppenheimer" has been recorded successfully.
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -676,13 +678,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;19;03.json</t>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_14;11;05.json</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made regarding the movie for Friday.
+MSG: The decision regarding Friday's movie cannot be made at this time.
 </t>
         </is>
       </c>
@@ -698,19 +700,19 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;59;15.json</t>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;50;43.json</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights to "Barbie" for the screening on Friday.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -720,19 +722,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;54;15.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;51;47.json</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" about the movie to be shown on Friday.
+MSG: The decision has been recorded, and the movie "Barbie" has been selected for acquisition.
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -742,19 +744,19 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;00;00.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;51;31.json</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The conversation ended without a decision about which movie to play on Friday. Thus, the outcome is that no choice has been made.
+MSG: The decision to acquire the rights for both movies has been successfully recorded.
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -764,13 +766,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;09;58.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;01;10.json</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have made the decision to call the no_decision function based on the criteria provided.
+MSG: The decision for Friday's movie has not been made, and the conversation ended without reaching a conclusion.
 </t>
         </is>
       </c>
@@ -786,13 +788,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;04;44.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;14;08.json</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been recorded.
+MSG: The decision has been recorded to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
@@ -808,19 +810,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;58;24.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;50;35.json</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: It seems there was no consensus reached about the movie to show on Friday, so a decision cannot be made. Therefore, I have recorded the outcome as a no decision situation.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -830,19 +832,19 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;51;16.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;07;19.json</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday was not reached, so I have confirmed that no decision will be made.
+MSG: The decision has been recorded to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -852,19 +854,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;52;03.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;54;12.json</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Barbie."
+MSG: The decision was made not to select a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -874,13 +876,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;17;54.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;19;03.json</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, indicating that no movie was ultimately selected for Friday.
+MSG: The decision to show a movie on Friday was not resolved, leading to no choice being made.
 </t>
         </is>
       </c>
@@ -896,19 +898,19 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;04;01.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;59;15.json</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie has not been made.
+MSG: The rights for both movies have been acquired successfully.
 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -918,13 +920,13 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;01;05.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;54;15.json</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process ended without a clear agreement on which movie to show on Friday, so I will not be acquiring any movie rights.
+MSG: The conversation did not result in a clear decision about which movie to play on Friday, so the result is that no decision can be made at this time.
 </t>
         </is>
       </c>
@@ -940,13 +942,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;59;26.json</t>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;51;46.json</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: No decision was made regarding which movie to show on Friday.
+MSG: The decision process concluded without an agreement on a movie for Friday, so no movie was selected.
 </t>
         </is>
       </c>
@@ -962,19 +964,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;09;33.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;00;00.json</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for both movies, "Oppenheimer" and "Barbie."
+MSG: The decision regarding the movie to show on Friday has resulted in no selection.
 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -984,13 +986,13 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;17;02.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;02;19.json</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not reached in the discussion, so the outcome is a no decision.
+MSG: The decision process has concluded without a definite agreement on which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1006,19 +1008,19 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;56;57.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;09;58.json</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded. The selected movie for Friday is "Barbie."
+MSG: The decision has been logged as no decision regarding the movie to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1028,19 +1030,19 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;16;59.json</t>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;54;01.json</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for both movies "Barbie" and "Oppenheimer" as they will be shown in their entirety on Friday.
+MSG: No decision was made about which movie to show on Friday.
 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1050,13 +1052,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;21;52.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;04;44.json</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and "Barbie" will be the movie shown on Friday.
+MSG: The decision to acquire the rights for "Barbie" has been successfully made.
 </t>
         </is>
       </c>
@@ -1072,19 +1074,19 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;22;33.json</t>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;47;23.json</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie."
+MSG: The decision has been recorded as no movie being selected at this time.
 </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1094,13 +1096,13 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;02;13.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;52;06.json</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision."
+MSG: The decision has been recorded with no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1116,13 +1118,13 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;10;38.json</t>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;40;48.json</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about which movie to show on Friday has resulted in no agreement.
+MSG: The decision about which movie to show has resulted in no agreement.
 </t>
         </is>
       </c>
@@ -1138,19 +1140,19 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;05;52.json</t>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;39;51.json</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and the rights to "Barbie" have been acquired.
+MSG: The decision has been recorded as no movie was selected in this meeting.
 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1160,13 +1162,13 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;12;16.json</t>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;45;21.json</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making committee did not reach a consensus on the movie to be shown on Friday, leading to no decision being made.
+MSG: The decision about which movie to show on Friday was left unresolved.
 </t>
         </is>
       </c>
@@ -1182,19 +1184,19 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;47;30.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;06;01.json</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision-making process concluded without arriving at an agreement on which movie to show on Friday.
+MSG: The rights to "Oppenheimer" have been successfully acquired for Friday's screening.
 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1204,13 +1206,13 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;48;38.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;58;24.json</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision was reached regarding the selection of a movie.
+MSG: The decision has been recorded as a no decision regarding the movie for Friday.
 </t>
         </is>
       </c>
@@ -1226,19 +1228,19 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;13;37.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;51;16.json</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Oppenheimer".
+MSG: The decision has been recorded as "no decision" regarding the selection of a movie for Friday.
 </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1248,13 +1250,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;46;43.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;00;53.json</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded, and no movie will be selected for Friday.
+MSG: The decision regarding the movie to be shown on Friday was not made.
 </t>
         </is>
       </c>
@@ -1270,19 +1272,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;11;20.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;52;03.json</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision.
+MSG: I have recorded the decision to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1292,19 +1294,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;57;17.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;17;54.json</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have acquired the rights for both movies.
+MSG: The decision has been recorded as no movie being selected for Friday.
 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1314,19 +1316,19 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;56;02.json</t>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;55;51.json</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding the movie to be shown on Friday remains unresolved, and no specific choice has been made.
+MSG: The decision to acquire the rights to both movies has been recorded.
 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1336,13 +1338,13 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;15;01.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;04;01.json</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without a selection for Friday's movie.
+MSG: The decision has been recorded as "no decision."
 </t>
         </is>
       </c>
@@ -1358,13 +1360,13 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;55;03.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;59;49.json</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as no decision being made about Friday's movie.
+MSG: The decision about which movie to show on Friday remains unresolved.
 </t>
         </is>
       </c>
@@ -1380,19 +1382,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;20;52.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;01;05.json</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
+MSG: I have recorded the decision to acquire the rights for both movies.
 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1402,19 +1404,19 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;02;44.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;59;26.json</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision about what movie to show on Friday was not finalized, so no acquisition of rights will be taking place.
+MSG: The decision has been made to acquire the rights for "Barbie" to be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1424,13 +1426,13 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;06;56.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;09;33.json</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights to both movies.
+MSG: The rights to both movies have been successfully acquired.
 </t>
         </is>
       </c>
@@ -1446,19 +1448,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;04;48.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;17;02.json</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for "Barbie" has been successfully recorded.
+MSG: The decision about which movie to play on Friday has not been made.
 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Barbie_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1468,13 +1470,13 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;49;52.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;12;01.json</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision process concluded without reaching an agreement on a movie for Friday.
+MSG: The decision has been recorded as no movie selected for Friday.
 </t>
         </is>
       </c>
@@ -1490,19 +1492,19 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;19;44.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;11;20.json</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as a no decision.
+MSG: The decision has been recorded, and the rights to "Oppenheimer" have been acquired.
 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1512,19 +1514,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;15;11.json</t>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;51;14.json</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded to acquire the rights for "Oppenheimer."
+MSG: The decision is recorded, and no movie has been selected for Friday.
 </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+          <t xml:space="preserve">no_decision, </t>
         </is>
       </c>
     </row>
@@ -1534,19 +1536,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;15;49.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;56;57.json</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to acquire the rights for both movies, "Barbie" and "Oppenheimer," has been confirmed.
+MSG: The decision has been made to acquire the rights for "Barbie."
 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">both_movies, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1556,19 +1558,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;08;19.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;16;59.json</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision regarding Friday's movie ended without a definitive conclusion.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1578,19 +1580,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;18;24.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;21;52.json</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision has been recorded as "no decision" regarding the choice of a movie for Friday.
+MSG: The rights to both movies have been acquired.
 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">both_movies, </t>
         </is>
       </c>
     </row>
@@ -1600,19 +1602,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;52;16.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;22;33.json</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The decision to show a movie on Friday was not reached.
+MSG: The decision has been recorded, and the movie "Barbie" will be shown on Friday.
 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">no_decision, </t>
+          <t xml:space="preserve">Barbie_was_selected, </t>
         </is>
       </c>
     </row>
@@ -1622,13 +1624,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;06;32.json</t>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;06;41.json</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: I have recorded the decision to acquire the rights for "Barbie" as the movie for the assembly.
+MSG: The decision to acquire the rights for "Barbie" has been recorded successfully.
 </t>
         </is>
       </c>
@@ -1644,13 +1646,13 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;52;41.json</t>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;02;13.json</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a decision about which movie to show on Friday, so I will call the no_decision function.
+MSG: The decision about which movie to show on Friday was not made.
 </t>
         </is>
       </c>
@@ -1666,13 +1668,13 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;12;54.json</t>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;10;38.json</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t xml:space="preserve">MSG: None
-MSG: The committee did not reach a consensus on which movie to show on Friday, so I have recorded no decision on the movie selection.
+MSG: The decision has been recorded as "no_decision," indicating that no agreement was reached about which movie to show on Friday.
 </t>
         </is>
       </c>
@@ -1688,17 +1690,897 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;05;52.json</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the rights for the movie "Barbie" will be acquired for showing on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;41;34.json</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday could not be made.
+</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;12;16.json</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to show Friday's movie has not been reached, leading to a no decision outcome.
+</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;03;53.json</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday has been logged as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;47;30.json</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday resulted in no consensus.
+</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;48;38.json</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without a definitive choice about which movie to show on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;13;37.json</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without an agreement on which movie to show on Friday. Therefore, the outcome is classified as "no decision."
+</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;49;46.json</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie was selected in this meeting.
+</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;53;32.json</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be selected for Friday based on the lack of a definitive agreement.
+</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;46;43.json</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding Friday's movie has resulted in no consensus being reached.
+</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;11;20.json</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, reflecting that there was no agreement on the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;57;17.json</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for both movies "Oppenheimer" and "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;56;02.json</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no specific movie was selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;38;37.json</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No decision was made regarding which movie will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;44;05.json</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie has been acquired for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;15;01.json</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process concluded without a clear selection for Friday's movie, so no action was taken to acquire any movie rights.
+</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;55;03.json</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding the movie for Friday could not be made, and therefore, I would like to confirm that the choice remains undecided.
+</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_14;10;03.json</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision is that no agreement was reached regarding the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;05;07.json</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made: no movie will be selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;20;52.json</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights for both movies have been acquired successfully.
+</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;55;22.json</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no movie being selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;02;44.json</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision process did not result in a selection for the movie to be shown on Friday, so no acquisition will be made.
+</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;06;56.json</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision to acquire the rights for both movies has been recorded.
+</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;55;18.json</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: I have successfully recorded the decision to acquire the rights to both movies.
+</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_16_2025 at_14;52;59.json</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie will be acquired for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;08;38.json</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded to acquire the rights for "Barbie."
+</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;04;48.json</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights to "Barbie" for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;49;52.json</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as no decision regarding the movie for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;19;44.json</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded. "Oppenheimer" will be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;15;11.json</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been made to acquire the rights for "Oppenheimer."
+</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppenheimer_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;15;49.json</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The rights to both movies have been acquired.
+</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">both_movies, </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;08;19.json</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and no movie has been selected for Friday.
+</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_19;07;28.json</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The function has been called to indicate that "Barbie" was selected for the movie to be shown on Friday.
+</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;18;24.json</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: No movie was selected in this meeting.
+</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_01;52;16.json</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has been recorded as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_13_2025 at_18;52;56.json</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded as "no_decision."
+</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_08_11_2025 at_16;36;58.json</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision regarding which movie to show on Friday has resulted in no agreement.
+</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_07;06;32.json</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision has been recorded, and the selected movie to acquire rights for is **Barbie**.
+</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbie_was_selected, </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_05_04_2025 at_08;52;41.json</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision-making process concluded without a clear agreement on which movie to show. Therefore, no movie will be acquired.
+</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>./Warehouse/EC/run4o_discovery_04_29_2025 at_02;12;54.json</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The decision about which movie to show on Friday has not been made.
+</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no_decision, </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
           <t>./Warehouse/EC/run4o_discovery_05_02_2025 at_06;49;26.json</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MSG: None
-MSG: The decision process has concluded without selecting a movie for Friday.
-</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSG: None
+MSG: The committee did not reach a decision regarding which movie to show on Friday, so the outcome is registered as no decision.
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t xml:space="preserve">no_decision, </t>
         </is>
